--- a/testData/WebForm/TC012_WF_RRUserYN_OneConditionN_Test.xlsx
+++ b/testData/WebForm/TC012_WF_RRUserYN_OneConditionN_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="99">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -231,36 +231,9 @@
     <t>WebFormId</t>
   </si>
   <si>
-    <t>9840033217</t>
-  </si>
-  <si>
-    <t>9840006892</t>
-  </si>
-  <si>
-    <t>9840059899</t>
-  </si>
-  <si>
-    <t>9840016016</t>
-  </si>
-  <si>
-    <t>9840030399</t>
-  </si>
-  <si>
-    <t>9840097449</t>
-  </si>
-  <si>
-    <t>9840095333</t>
-  </si>
-  <si>
     <t>WF_RRUserYN_OneConditionN_Test</t>
   </si>
   <si>
-    <t>9840049379</t>
-  </si>
-  <si>
-    <t>WF_RRUserYN_OneConditionN_2</t>
-  </si>
-  <si>
     <t>Sharon</t>
   </si>
   <si>
@@ -285,49 +258,64 @@
     <t>Shirley</t>
   </si>
   <si>
-    <t>9840027061</t>
+    <t>WF_RRUserYN_OneConditionN</t>
+  </si>
+  <si>
+    <t>9840052484</t>
+  </si>
+  <si>
+    <t>9840012663</t>
+  </si>
+  <si>
+    <t>9840053820</t>
+  </si>
+  <si>
+    <t>9840091391</t>
+  </si>
+  <si>
+    <t>9840049583</t>
+  </si>
+  <si>
+    <t>9840013588</t>
+  </si>
+  <si>
+    <t>9840071244</t>
+  </si>
+  <si>
+    <t>9840080001</t>
+  </si>
+  <si>
+    <t>9840098454</t>
+  </si>
+  <si>
+    <t>9840081358</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>9840048819</t>
-  </si>
-  <si>
-    <t>9840050454</t>
-  </si>
-  <si>
-    <t>9840029451</t>
-  </si>
-  <si>
-    <t>9840012636</t>
-  </si>
-  <si>
-    <t>9840052620</t>
-  </si>
-  <si>
-    <t>9840065297</t>
-  </si>
-  <si>
-    <t>9840065674</t>
-  </si>
-  <si>
-    <t>9840052925</t>
-  </si>
-  <si>
-    <t>9840032606</t>
-  </si>
-  <si>
-    <t>9840008391</t>
-  </si>
-  <si>
-    <t>9840013791</t>
-  </si>
-  <si>
-    <t>9840062184</t>
-  </si>
-  <si>
-    <t>9840079397</t>
+    <t>9840097926</t>
+  </si>
+  <si>
+    <t>9840008634</t>
+  </si>
+  <si>
+    <t>9840073108</t>
+  </si>
+  <si>
+    <t>9840060820</t>
+  </si>
+  <si>
+    <t>9840007948</t>
+  </si>
+  <si>
+    <t>9840054408</t>
+  </si>
+  <si>
+    <t>9840022487</t>
+  </si>
+  <si>
+    <t>9840027367</t>
   </si>
 </sst>
 </file>
@@ -676,59 +664,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O10"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="31.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.28515625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.5703125"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="12.90625"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="41" max="42" customWidth="true" width="15.26953125"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="44" max="45" customWidth="true" width="11.453125"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="47" max="53" customWidth="true" width="11.453125"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="19" max="19" customWidth="true" width="10.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="22" max="22" customWidth="true" width="10.5703125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="25" max="25" customWidth="true" width="10.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="32" max="33" customWidth="true" width="9.5703125"/>
+    <col min="34" max="35" customWidth="true" width="15.28515625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="37" max="37" customWidth="true" width="17.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="31.140625"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="12.85546875"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="15.28515625"/>
+    <col min="41" max="42" customWidth="true" width="15.28515625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="44" max="45" customWidth="true" width="11.42578125"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="47" max="53" customWidth="true" width="11.42578125"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="10.7109375"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -904,7 +892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -912,7 +900,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>12</v>
@@ -921,7 +909,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -951,7 +939,7 @@
         <v>17</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="Q2" t="s" s="0">
         <v>17</v>
@@ -960,7 +948,7 @@
         <v>50</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s" s="0">
         <v>50</v>
@@ -969,7 +957,7 @@
         <v>50</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="0">
         <v>17</v>
@@ -978,7 +966,7 @@
         <v>50</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="Z2" t="s" s="0">
         <v>50</v>
@@ -987,7 +975,7 @@
         <v>50</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AC2" s="4" t="s">
         <v>50</v>
@@ -996,7 +984,7 @@
         <v>50</v>
       </c>
       <c r="AE2" t="s" s="0">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AF2" s="4" t="s">
         <v>50</v>
@@ -1005,7 +993,7 @@
         <v>50</v>
       </c>
       <c r="AH2" t="s" s="0">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI2" s="4" t="s">
         <v>50</v>
@@ -1023,10 +1011,10 @@
         <v>61</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="s" s="0">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AP2" s="4" t="s">
         <v>50</v>
@@ -1074,7 +1062,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1082,7 +1070,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>12</v>
@@ -1091,7 +1079,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1121,7 +1109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1129,7 +1117,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>12</v>
@@ -1138,7 +1126,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1168,7 +1156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1176,7 +1164,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>12</v>
@@ -1185,7 +1173,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1216,7 +1204,7 @@
       </c>
       <c r="AE5" s="4"/>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1224,7 +1212,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>12</v>
@@ -1263,7 +1251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1271,7 +1259,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>12</v>
@@ -1310,7 +1298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1318,7 +1306,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>12</v>
@@ -1357,7 +1345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1365,7 +1353,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>12</v>
@@ -1404,7 +1392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1412,7 +1400,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>12</v>

--- a/testData/WebForm/TC012_WF_RRUserYN_OneConditionN_Test.xlsx
+++ b/testData/WebForm/TC012_WF_RRUserYN_OneConditionN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="108">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -316,6 +316,33 @@
   </si>
   <si>
     <t>9840027367</t>
+  </si>
+  <si>
+    <t>9840021629</t>
+  </si>
+  <si>
+    <t>9840073816</t>
+  </si>
+  <si>
+    <t>9840015053</t>
+  </si>
+  <si>
+    <t>9840007094</t>
+  </si>
+  <si>
+    <t>9840006017</t>
+  </si>
+  <si>
+    <t>9840015663</t>
+  </si>
+  <si>
+    <t>9840025646</t>
+  </si>
+  <si>
+    <t>9840041532</t>
+  </si>
+  <si>
+    <t>9840060976</t>
   </si>
 </sst>
 </file>
@@ -909,7 +936,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1011,7 +1038,7 @@
         <v>61</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="AO2" t="s" s="0">
         <v>78</v>
@@ -1079,7 +1106,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1126,7 +1153,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1173,7 +1200,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1221,7 +1248,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1268,7 +1295,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1315,7 +1342,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1362,7 +1389,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1409,7 +1436,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>

--- a/testData/WebForm/TC012_WF_RRUserYN_OneConditionN_Test.xlsx
+++ b/testData/WebForm/TC012_WF_RRUserYN_OneConditionN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="117">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -343,6 +343,33 @@
   </si>
   <si>
     <t>9840060976</t>
+  </si>
+  <si>
+    <t>9840010474</t>
+  </si>
+  <si>
+    <t>9840058720</t>
+  </si>
+  <si>
+    <t>9840003242</t>
+  </si>
+  <si>
+    <t>9840062453</t>
+  </si>
+  <si>
+    <t>9840061544</t>
+  </si>
+  <si>
+    <t>9840075995</t>
+  </si>
+  <si>
+    <t>9840046443</t>
+  </si>
+  <si>
+    <t>9840013451</t>
+  </si>
+  <si>
+    <t>9840072102</t>
   </si>
 </sst>
 </file>
@@ -936,7 +963,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1038,7 +1065,7 @@
         <v>61</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="s" s="0">
         <v>78</v>
@@ -1106,7 +1133,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1153,7 +1180,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1200,7 +1227,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1248,7 +1275,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1295,7 +1322,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1342,7 +1369,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1389,7 +1416,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1436,7 +1463,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>

--- a/testData/WebForm/TC012_WF_RRUserYN_OneConditionN_Test.xlsx
+++ b/testData/WebForm/TC012_WF_RRUserYN_OneConditionN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="94">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -261,90 +261,9 @@
     <t>WF_RRUserYN_OneConditionN</t>
   </si>
   <si>
-    <t>9840052484</t>
-  </si>
-  <si>
-    <t>9840012663</t>
-  </si>
-  <si>
-    <t>9840053820</t>
-  </si>
-  <si>
-    <t>9840091391</t>
-  </si>
-  <si>
-    <t>9840049583</t>
-  </si>
-  <si>
-    <t>9840013588</t>
-  </si>
-  <si>
-    <t>9840071244</t>
-  </si>
-  <si>
-    <t>9840080001</t>
-  </si>
-  <si>
-    <t>9840098454</t>
-  </si>
-  <si>
-    <t>9840081358</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>9840097926</t>
-  </si>
-  <si>
-    <t>9840008634</t>
-  </si>
-  <si>
-    <t>9840073108</t>
-  </si>
-  <si>
-    <t>9840060820</t>
-  </si>
-  <si>
-    <t>9840007948</t>
-  </si>
-  <si>
-    <t>9840054408</t>
-  </si>
-  <si>
-    <t>9840022487</t>
-  </si>
-  <si>
-    <t>9840027367</t>
-  </si>
-  <si>
-    <t>9840021629</t>
-  </si>
-  <si>
-    <t>9840073816</t>
-  </si>
-  <si>
-    <t>9840015053</t>
-  </si>
-  <si>
-    <t>9840007094</t>
-  </si>
-  <si>
-    <t>9840006017</t>
-  </si>
-  <si>
-    <t>9840015663</t>
-  </si>
-  <si>
-    <t>9840025646</t>
-  </si>
-  <si>
-    <t>9840041532</t>
-  </si>
-  <si>
-    <t>9840060976</t>
-  </si>
-  <si>
     <t>9840010474</t>
   </si>
   <si>
@@ -370,6 +289,18 @@
   </si>
   <si>
     <t>9840072102</t>
+  </si>
+  <si>
+    <t>9840099090</t>
+  </si>
+  <si>
+    <t>9840000135</t>
+  </si>
+  <si>
+    <t>9840008811</t>
+  </si>
+  <si>
+    <t>9840063391</t>
   </si>
 </sst>
 </file>
@@ -718,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +894,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1065,7 +996,7 @@
         <v>61</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AO2" t="s" s="0">
         <v>78</v>
@@ -1133,7 +1064,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1180,7 +1111,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1207,7 +1138,7 @@
         <v>54</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
@@ -1227,7 +1158,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1254,7 +1185,7 @@
         <v>55</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="AE5" s="4"/>
     </row>
@@ -1275,7 +1206,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1302,7 +1233,7 @@
         <v>56</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
@@ -1322,7 +1253,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1349,7 +1280,7 @@
         <v>47</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
@@ -1369,7 +1300,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1396,7 +1327,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
@@ -1416,7 +1347,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1443,7 +1374,7 @@
         <v>54</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
@@ -1463,7 +1394,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1490,7 +1421,7 @@
         <v>55</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
